--- a/SeleniumJavaFranework/excel/data.xlsx
+++ b/SeleniumJavaFranework/excel/data.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="2895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17415" windowHeight="2895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="QA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Password</t>
   </si>
@@ -37,6 +38,78 @@
   </si>
   <si>
     <t>Admin2</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>What is Club Publix?</t>
+  </si>
+  <si>
+    <t>A free-to-join membership program where customers:
+Receive personalized communications and relevant savings.
+Have access to digital tools to make shopping easier.
+Are the first to know information that inspires food choices.</t>
+  </si>
+  <si>
+    <t>What are the benefits of Club Publix?</t>
+  </si>
+  <si>
+    <t>Save On Your Favorites
+Get notified first for BOGOs and other sales.
+Receive relevant perks exclusive to members.
+Get coupons you’ll use based on the items you buy.
+Shop Easier
+Pay with a simple scan of the Publix app.
+Reorder your favorites with a few taps on your phone.
+Keep track of what you buy with e-receipts.
+Create and save shopping lists on the go.
+Stay in the Know
+Never miss a sale again with weekly ad sneak peeks.
+Find out about new product launches before anyone else.
+Get personalized product pairings, tips, and updates matched to your tastes.
+Invest in Your Community (Limited markets only.)
+Support the school of your choice with Publix Partners.
+Publix will give a portion of our sales to schools our customers choose.</t>
+  </si>
+  <si>
+    <t>What type of communications will I receive if I join Club Publix?</t>
+  </si>
+  <si>
+    <t>By joining Club Publix, you will receive personalized communications and relevant savings based on what you buy. These communications may include:
+Email
+Direct mail
+App notifications (If you have the Publix app on your phone)
+You may always log in to your account to update your communication preferences.</t>
+  </si>
+  <si>
+    <t>Who do I call/contact for additional questions?</t>
+  </si>
+  <si>
+    <t>Please contact our Customer Care department for additional questions. You may do so:
+Online: Contact us and submit your inquiry
+Phone: (800) 242-1227; M–F: 8 a.m. – 7 p.m. (EST), Sat: 9 a.m. – noon (EST)
+Facebook
+Twitter
+Mail: Publix Super Markets Corporate Office
+ATTN: Customer Care
+PO Box 407
+Lakeland, FL 33802-0407</t>
+  </si>
+  <si>
+    <t>How frequently will I receive communications from Club Publix?</t>
+  </si>
+  <si>
+    <t>Frequency and communication method may vary. However, we do take our communications seriously and want to ensure that they never are too disruptive to our members. You may also change or opt out of communication settings as you please.</t>
+  </si>
+  <si>
+    <t>Do I have to enter my phone number at the register or pay with the Publix app every time I shop?</t>
+  </si>
+  <si>
+    <t>It’s highly recommended. By entering your phone number at the register or paying with the Publix app every time you shop, future communications and savings will be more personalized and relevant based on what you buy.</t>
   </si>
 </sst>
 </file>
@@ -72,9 +145,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -394,4 +473,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.140625" customWidth="1"/>
+    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>